--- a/小组经费支出-董.xlsx
+++ b/小组经费支出-董.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
     <t>核对清单(2019年1月24日收到董师兄¥4000+2019年3月4日收到¥2000，共计¥6000)</t>
   </si>
@@ -104,6 +104,9 @@
     <t>上海扬州出差-火车票（三人扬州到汉口）</t>
   </si>
   <si>
+    <t>已报销</t>
+  </si>
+  <si>
     <t>上海扬州出差-火车票（四人上海到镇江）</t>
   </si>
   <si>
@@ -111,6 +114,12 @@
   </si>
   <si>
     <t>上海扬州出差-火车票（三人武汉到上海）</t>
+  </si>
+  <si>
+    <t>转周雨舟成都出差</t>
+  </si>
+  <si>
+    <t>2019.03.19</t>
   </si>
   <si>
     <t>梁福逊</t>
@@ -567,7 +576,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -637,58 +646,46 @@
     <xf numFmtId="0" fontId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1810,7 +1807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:G32"/>
+  <dimension ref="A2:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2122,7 +2119,7 @@
     <row r="16" ht="37" customHeight="1">
       <c r="A16" s="13"/>
       <c r="B16" t="b" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s" s="19">
         <v>29</v>
@@ -2137,7 +2134,7 @@
         <v>474</v>
       </c>
       <c r="G16" t="s" s="21">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" ht="37" customHeight="1">
@@ -2146,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s" s="15">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s" s="15">
         <v>7</v>
@@ -2164,10 +2161,10 @@
     <row r="18" ht="37" customHeight="1">
       <c r="A18" s="13"/>
       <c r="B18" t="b" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s" s="19">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s" s="19">
         <v>7</v>
@@ -2179,80 +2176,80 @@
         <v>143</v>
       </c>
       <c r="G18" t="s" s="21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" ht="37" customHeight="1">
+      <c r="A19" s="13"/>
+      <c r="B19" t="b" s="14">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s" s="15">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s" s="15">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="F19" s="16">
+        <v>1008</v>
+      </c>
+      <c r="G19" t="s" s="17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" ht="23.35" customHeight="1">
+      <c r="A20" s="22"/>
+      <c r="B20" t="b" s="23">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s" s="24">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s" s="24">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s" s="24">
+        <v>35</v>
+      </c>
+      <c r="F20" s="25">
+        <v>1000</v>
+      </c>
+      <c r="G20" t="s" s="26">
         <v>10</v>
       </c>
     </row>
-    <row r="19" ht="37.6" customHeight="1">
-      <c r="A19" s="22"/>
-      <c r="B19" t="b" s="23">
+    <row r="21" ht="21.05" customHeight="1">
+      <c r="A21" t="s" s="6">
+        <v>36</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" ht="37" customHeight="1">
+      <c r="A22" s="8"/>
+      <c r="B22" t="b" s="9">
         <v>1</v>
       </c>
-      <c r="C19" t="s" s="24">
-        <v>32</v>
-      </c>
-      <c r="D19" t="s" s="24">
-        <v>7</v>
-      </c>
-      <c r="E19" t="s" s="24">
-        <v>25</v>
-      </c>
-      <c r="F19" s="25">
-        <v>1008</v>
-      </c>
-      <c r="G19" t="s" s="26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" ht="21.05" customHeight="1">
-      <c r="A20" t="s" s="6">
-        <v>33</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" ht="37" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" t="b" s="27">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s" s="28">
+      <c r="C22" t="s" s="10">
         <v>13</v>
       </c>
-      <c r="D21" t="s" s="28">
-        <v>33</v>
-      </c>
-      <c r="E21" t="s" s="28">
+      <c r="D22" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F22" s="11">
         <v>73</v>
       </c>
-      <c r="G21" t="s" s="30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" ht="23" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" t="b" s="18">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s" s="19">
-        <v>34</v>
-      </c>
-      <c r="D22" t="s" s="19">
-        <v>33</v>
-      </c>
-      <c r="E22" t="s" s="19">
-        <v>12</v>
-      </c>
-      <c r="F22" s="20">
-        <v>360</v>
-      </c>
-      <c r="G22" t="s" s="21">
+      <c r="G22" t="s" s="12">
         <v>10</v>
       </c>
     </row>
@@ -2262,16 +2259,16 @@
         <v>1</v>
       </c>
       <c r="C23" t="s" s="15">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s" s="15">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s" s="15">
         <v>12</v>
       </c>
       <c r="F23" s="16">
-        <v>78</v>
+        <v>360</v>
       </c>
       <c r="G23" t="s" s="17">
         <v>10</v>
@@ -2283,150 +2280,171 @@
         <v>1</v>
       </c>
       <c r="C24" t="s" s="19">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s" s="19">
         <v>36</v>
       </c>
-      <c r="D24" t="s" s="19">
-        <v>33</v>
-      </c>
       <c r="E24" t="s" s="19">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="F24" s="20">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="21">
         <v>10</v>
       </c>
     </row>
-    <row r="25" ht="23.6" customHeight="1">
-      <c r="A25" s="22"/>
-      <c r="B25" t="b" s="23">
+    <row r="25" ht="23" customHeight="1">
+      <c r="A25" s="13"/>
+      <c r="B25" t="b" s="14">
         <v>1</v>
       </c>
-      <c r="C25" t="s" s="24">
-        <v>38</v>
-      </c>
-      <c r="D25" t="s" s="24">
-        <v>33</v>
-      </c>
-      <c r="E25" t="s" s="24">
+      <c r="C25" t="s" s="15">
         <v>39</v>
       </c>
-      <c r="F25" s="25">
+      <c r="D25" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="E25" t="s" s="15">
+        <v>40</v>
+      </c>
+      <c r="F25" s="16">
+        <v>104</v>
+      </c>
+      <c r="G25" t="s" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" ht="23.6" customHeight="1">
+      <c r="A26" s="22"/>
+      <c r="B26" t="b" s="23">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s" s="24">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s" s="24">
+        <v>36</v>
+      </c>
+      <c r="E26" t="s" s="24">
+        <v>42</v>
+      </c>
+      <c r="F26" s="25">
         <v>214.5</v>
       </c>
-      <c r="G25" t="s" s="26">
+      <c r="G26" t="s" s="26">
         <v>10</v>
       </c>
     </row>
-    <row r="26" ht="21.05" customHeight="1">
-      <c r="A26" t="s" s="6">
-        <v>40</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" ht="23.6" customHeight="1">
-      <c r="A27" s="31"/>
-      <c r="B27" t="b" s="32">
+    <row r="27" ht="21.05" customHeight="1">
+      <c r="A27" t="s" s="6">
+        <v>43</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" ht="23.6" customHeight="1">
+      <c r="A28" s="27"/>
+      <c r="B28" t="b" s="28">
         <v>1</v>
       </c>
-      <c r="C27" t="s" s="33">
-        <v>41</v>
-      </c>
-      <c r="D27" t="s" s="33">
-        <v>40</v>
-      </c>
-      <c r="E27" t="s" s="33">
-        <v>42</v>
-      </c>
-      <c r="F27" s="34">
+      <c r="C28" t="s" s="29">
+        <v>44</v>
+      </c>
+      <c r="D28" t="s" s="29">
+        <v>43</v>
+      </c>
+      <c r="E28" t="s" s="29">
+        <v>45</v>
+      </c>
+      <c r="F28" s="30">
         <v>80</v>
       </c>
-      <c r="G27" t="s" s="35">
+      <c r="G28" t="s" s="31">
         <v>10</v>
       </c>
     </row>
-    <row r="28" ht="21.05" customHeight="1">
-      <c r="A28" t="s" s="6">
-        <v>43</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" ht="23.6" customHeight="1">
-      <c r="A29" s="31"/>
-      <c r="B29" t="b" s="32">
+    <row r="29" ht="21.05" customHeight="1">
+      <c r="A29" t="s" s="6">
+        <v>46</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" ht="23.6" customHeight="1">
+      <c r="A30" s="27"/>
+      <c r="B30" t="b" s="28">
         <v>1</v>
       </c>
-      <c r="C29" t="s" s="33">
-        <v>44</v>
-      </c>
-      <c r="D29" t="s" s="33">
-        <v>43</v>
-      </c>
-      <c r="E29" t="s" s="33">
+      <c r="C30" t="s" s="29">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s" s="29">
+        <v>46</v>
+      </c>
+      <c r="E30" t="s" s="29">
         <v>23</v>
       </c>
-      <c r="F29" s="34">
+      <c r="F30" s="30">
         <v>24</v>
       </c>
-      <c r="G29" t="s" s="35">
+      <c r="G30" t="s" s="31">
         <v>10</v>
       </c>
     </row>
-    <row r="30" ht="21.05" customHeight="1">
-      <c r="A30" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" ht="23.1" customHeight="1">
-      <c r="A31" s="36"/>
-      <c r="B31" t="b" s="37">
+    <row r="31" ht="21.05" customHeight="1">
+      <c r="A31" t="s" s="6">
+        <v>48</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" ht="23.1" customHeight="1">
+      <c r="A32" s="32"/>
+      <c r="B32" t="b" s="33">
         <v>1</v>
       </c>
-      <c r="C31" t="s" s="38">
-        <v>46</v>
-      </c>
-      <c r="D31" t="s" s="38">
-        <v>45</v>
-      </c>
-      <c r="E31" t="s" s="38">
+      <c r="C32" t="s" s="34">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s" s="34">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s" s="34">
         <v>23</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F32" s="35">
         <v>130</v>
       </c>
-      <c r="G31" t="s" s="40">
+      <c r="G32" t="s" s="36">
         <v>10</v>
       </c>
     </row>
-    <row r="32" ht="22.6" customHeight="1">
-      <c r="A32" s="41"/>
-      <c r="B32" s="42"/>
-      <c r="C32" t="s" s="42">
-        <v>47</v>
-      </c>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="43">
-        <v>5661.940000000001</v>
-      </c>
-      <c r="G32" s="44"/>
+    <row r="33" ht="22.6" customHeight="1">
+      <c r="A33" s="37"/>
+      <c r="B33" s="38"/>
+      <c r="C33" t="s" s="38">
+        <v>50</v>
+      </c>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="39">
+        <v>5036.940000000001</v>
+      </c>
+      <c r="G33" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/小组经费支出-董.xlsx
+++ b/小组经费支出-董.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
-  <si>
-    <t>核对清单(2019年1月24日收到董师兄¥4000+2019年3月4日收到¥2000，共计¥6000)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+  <si>
+    <t>核对清单(2019年1月24日收到董师兄¥4000+2019年3月4日收到¥2000+4月3号收到¥3000，共计¥9000)</t>
   </si>
   <si>
     <t>是/否</t>
@@ -120,6 +120,24 @@
   </si>
   <si>
     <t>2019.03.19</t>
+  </si>
+  <si>
+    <t>羽毛球场地费（20）+ 水 （20）</t>
+  </si>
+  <si>
+    <t>2019.03.31</t>
+  </si>
+  <si>
+    <t>扬州易图快递（快递费+文件袋）</t>
+  </si>
+  <si>
+    <t>2019.04.03</t>
+  </si>
+  <si>
+    <t>组会专家费（9人）+信封（10个）</t>
+  </si>
+  <si>
+    <t>2019.04.11</t>
   </si>
   <si>
     <t>梁福逊</t>
@@ -576,7 +594,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -646,46 +664,58 @@
     <xf numFmtId="0" fontId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1807,7 +1837,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:G33"/>
+  <dimension ref="A2:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2200,251 +2230,314 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" ht="23.35" customHeight="1">
-      <c r="A20" s="22"/>
-      <c r="B20" t="b" s="23">
+    <row r="20" ht="22.75" customHeight="1">
+      <c r="A20" s="13"/>
+      <c r="B20" t="b" s="18">
         <v>1</v>
       </c>
-      <c r="C20" t="s" s="24">
+      <c r="C20" t="s" s="19">
         <v>34</v>
       </c>
-      <c r="D20" t="s" s="24">
+      <c r="D20" t="s" s="19">
         <v>7</v>
       </c>
-      <c r="E20" t="s" s="24">
+      <c r="E20" t="s" s="19">
         <v>35</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="20">
         <v>1000</v>
       </c>
-      <c r="G20" t="s" s="26">
+      <c r="G20" t="s" s="21">
         <v>10</v>
       </c>
     </row>
-    <row r="21" ht="21.05" customHeight="1">
-      <c r="A21" t="s" s="6">
+    <row r="21" ht="23" customHeight="1">
+      <c r="A21" s="13"/>
+      <c r="B21" t="b" s="14">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s" s="15">
         <v>36</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" ht="37" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" t="b" s="9">
+      <c r="D21" t="s" s="15">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s" s="15">
+        <v>37</v>
+      </c>
+      <c r="F21" s="16">
+        <v>40</v>
+      </c>
+      <c r="G21" t="s" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" ht="23" customHeight="1">
+      <c r="A22" s="13"/>
+      <c r="B22" t="b" s="18">
         <v>1</v>
       </c>
-      <c r="C22" t="s" s="10">
+      <c r="C22" t="s" s="19">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s" s="19">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s" s="19">
+        <v>39</v>
+      </c>
+      <c r="F22" s="20">
+        <v>23.5</v>
+      </c>
+      <c r="G22" t="s" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" ht="23.6" customHeight="1">
+      <c r="A23" s="22"/>
+      <c r="B23" t="b" s="23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s" s="24">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s" s="24">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s" s="24">
+        <v>41</v>
+      </c>
+      <c r="F23" s="25">
+        <v>2103</v>
+      </c>
+      <c r="G23" t="s" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" ht="21.05" customHeight="1">
+      <c r="A24" t="s" s="6">
+        <v>42</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" ht="37" customHeight="1">
+      <c r="A25" s="8"/>
+      <c r="B25" t="b" s="27">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s" s="28">
         <v>13</v>
       </c>
-      <c r="D22" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="E22" t="s" s="10">
+      <c r="D25" t="s" s="28">
+        <v>42</v>
+      </c>
+      <c r="E25" t="s" s="28">
         <v>12</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F25" s="29">
         <v>73</v>
       </c>
-      <c r="G22" t="s" s="12">
+      <c r="G25" t="s" s="30">
         <v>10</v>
       </c>
     </row>
-    <row r="23" ht="23" customHeight="1">
-      <c r="A23" s="13"/>
-      <c r="B23" t="b" s="14">
+    <row r="26" ht="23" customHeight="1">
+      <c r="A26" s="13"/>
+      <c r="B26" t="b" s="18">
         <v>1</v>
       </c>
-      <c r="C23" t="s" s="15">
-        <v>37</v>
-      </c>
-      <c r="D23" t="s" s="15">
-        <v>36</v>
-      </c>
-      <c r="E23" t="s" s="15">
+      <c r="C26" t="s" s="19">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s" s="19">
+        <v>42</v>
+      </c>
+      <c r="E26" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F26" s="20">
         <v>360</v>
       </c>
-      <c r="G23" t="s" s="17">
+      <c r="G26" t="s" s="21">
         <v>10</v>
       </c>
     </row>
-    <row r="24" ht="23" customHeight="1">
-      <c r="A24" s="13"/>
-      <c r="B24" t="b" s="18">
+    <row r="27" ht="23" customHeight="1">
+      <c r="A27" s="13"/>
+      <c r="B27" t="b" s="14">
         <v>1</v>
       </c>
-      <c r="C24" t="s" s="19">
-        <v>38</v>
-      </c>
-      <c r="D24" t="s" s="19">
-        <v>36</v>
-      </c>
-      <c r="E24" t="s" s="19">
+      <c r="C27" t="s" s="15">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s" s="15">
+        <v>42</v>
+      </c>
+      <c r="E27" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F27" s="16">
         <v>78</v>
       </c>
-      <c r="G24" t="s" s="21">
+      <c r="G27" t="s" s="17">
         <v>10</v>
       </c>
     </row>
-    <row r="25" ht="23" customHeight="1">
-      <c r="A25" s="13"/>
-      <c r="B25" t="b" s="14">
+    <row r="28" ht="23" customHeight="1">
+      <c r="A28" s="13"/>
+      <c r="B28" t="b" s="18">
         <v>1</v>
       </c>
-      <c r="C25" t="s" s="15">
-        <v>39</v>
-      </c>
-      <c r="D25" t="s" s="15">
-        <v>36</v>
-      </c>
-      <c r="E25" t="s" s="15">
-        <v>40</v>
-      </c>
-      <c r="F25" s="16">
+      <c r="C28" t="s" s="19">
+        <v>45</v>
+      </c>
+      <c r="D28" t="s" s="19">
+        <v>42</v>
+      </c>
+      <c r="E28" t="s" s="19">
+        <v>46</v>
+      </c>
+      <c r="F28" s="20">
         <v>104</v>
       </c>
-      <c r="G25" t="s" s="17">
+      <c r="G28" t="s" s="21">
         <v>10</v>
       </c>
     </row>
-    <row r="26" ht="23.6" customHeight="1">
-      <c r="A26" s="22"/>
-      <c r="B26" t="b" s="23">
+    <row r="29" ht="23.6" customHeight="1">
+      <c r="A29" s="22"/>
+      <c r="B29" t="b" s="23">
         <v>1</v>
       </c>
-      <c r="C26" t="s" s="24">
-        <v>41</v>
-      </c>
-      <c r="D26" t="s" s="24">
-        <v>36</v>
-      </c>
-      <c r="E26" t="s" s="24">
+      <c r="C29" t="s" s="24">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s" s="24">
         <v>42</v>
       </c>
-      <c r="F26" s="25">
+      <c r="E29" t="s" s="24">
+        <v>48</v>
+      </c>
+      <c r="F29" s="25">
         <v>214.5</v>
       </c>
-      <c r="G26" t="s" s="26">
+      <c r="G29" t="s" s="26">
         <v>10</v>
       </c>
     </row>
-    <row r="27" ht="21.05" customHeight="1">
-      <c r="A27" t="s" s="6">
-        <v>43</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" ht="23.6" customHeight="1">
-      <c r="A28" s="27"/>
-      <c r="B28" t="b" s="28">
+    <row r="30" ht="21.05" customHeight="1">
+      <c r="A30" t="s" s="6">
+        <v>49</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" ht="23.6" customHeight="1">
+      <c r="A31" s="31"/>
+      <c r="B31" t="b" s="32">
         <v>1</v>
       </c>
-      <c r="C28" t="s" s="29">
-        <v>44</v>
-      </c>
-      <c r="D28" t="s" s="29">
-        <v>43</v>
-      </c>
-      <c r="E28" t="s" s="29">
-        <v>45</v>
-      </c>
-      <c r="F28" s="30">
+      <c r="C31" t="s" s="33">
+        <v>50</v>
+      </c>
+      <c r="D31" t="s" s="33">
+        <v>49</v>
+      </c>
+      <c r="E31" t="s" s="33">
+        <v>51</v>
+      </c>
+      <c r="F31" s="34">
         <v>80</v>
       </c>
-      <c r="G28" t="s" s="31">
+      <c r="G31" t="s" s="35">
         <v>10</v>
       </c>
     </row>
-    <row r="29" ht="21.05" customHeight="1">
-      <c r="A29" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" ht="23.6" customHeight="1">
-      <c r="A30" s="27"/>
-      <c r="B30" t="b" s="28">
+    <row r="32" ht="21.05" customHeight="1">
+      <c r="A32" t="s" s="6">
+        <v>52</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" ht="23.6" customHeight="1">
+      <c r="A33" s="31"/>
+      <c r="B33" t="b" s="32">
         <v>1</v>
       </c>
-      <c r="C30" t="s" s="29">
-        <v>47</v>
-      </c>
-      <c r="D30" t="s" s="29">
-        <v>46</v>
-      </c>
-      <c r="E30" t="s" s="29">
+      <c r="C33" t="s" s="33">
+        <v>53</v>
+      </c>
+      <c r="D33" t="s" s="33">
+        <v>52</v>
+      </c>
+      <c r="E33" t="s" s="33">
         <v>23</v>
       </c>
-      <c r="F30" s="30">
+      <c r="F33" s="34">
         <v>24</v>
       </c>
-      <c r="G30" t="s" s="31">
+      <c r="G33" t="s" s="35">
         <v>10</v>
       </c>
     </row>
-    <row r="31" ht="21.05" customHeight="1">
-      <c r="A31" t="s" s="6">
-        <v>48</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" ht="23.1" customHeight="1">
-      <c r="A32" s="32"/>
-      <c r="B32" t="b" s="33">
+    <row r="34" ht="21.05" customHeight="1">
+      <c r="A34" t="s" s="6">
+        <v>54</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" ht="23.1" customHeight="1">
+      <c r="A35" s="36"/>
+      <c r="B35" t="b" s="37">
         <v>1</v>
       </c>
-      <c r="C32" t="s" s="34">
-        <v>49</v>
-      </c>
-      <c r="D32" t="s" s="34">
-        <v>48</v>
-      </c>
-      <c r="E32" t="s" s="34">
+      <c r="C35" t="s" s="38">
+        <v>55</v>
+      </c>
+      <c r="D35" t="s" s="38">
+        <v>54</v>
+      </c>
+      <c r="E35" t="s" s="38">
         <v>23</v>
       </c>
-      <c r="F32" s="35">
+      <c r="F35" s="39">
         <v>130</v>
       </c>
-      <c r="G32" t="s" s="36">
+      <c r="G35" t="s" s="40">
         <v>10</v>
       </c>
     </row>
-    <row r="33" ht="22.6" customHeight="1">
-      <c r="A33" s="37"/>
-      <c r="B33" s="38"/>
-      <c r="C33" t="s" s="38">
-        <v>50</v>
-      </c>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="39">
-        <v>5036.940000000001</v>
-      </c>
-      <c r="G33" s="40"/>
+    <row r="36" ht="22.6" customHeight="1">
+      <c r="A36" s="41"/>
+      <c r="B36" s="42"/>
+      <c r="C36" t="s" s="42">
+        <v>56</v>
+      </c>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="43">
+        <v>7203.440000000001</v>
+      </c>
+      <c r="G36" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/小组经费支出-董.xlsx
+++ b/小组经费支出-董.xlsx
@@ -1,20 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mixiaoxin/Documents/source_tree_projects/dynamic-mapping-group1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9775F1F3-9801-5E40-9710-9CEFEE64453D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15960" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="总额核对清单 - 核对清单(2019年1月24日收到董师兄¥4" sheetId="1" r:id="rId4"/>
+    <sheet name="导出摘要" sheetId="1" r:id="rId1"/>
+    <sheet name="总额核对清单 - 收到 — 核对清单(2019年1月24日收到" sheetId="2" r:id="rId2"/>
+    <sheet name="总额核对清单 - 收到" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
-  <si>
-    <t>核对清单(2019年1月24日收到董师兄¥4000+2019年3月4日收到¥2000+4月3号收到¥3000，共计¥9000)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="87">
+  <si>
+    <t>此文稿由 Numbers 表格导出。所有表格均已转换为 Excel 工作表。每张 Numbers 工作表上的所有其他对象都已放置在单独的工作表中。请注意其中的公式计算可能与 Excel 不同。</t>
+  </si>
+  <si>
+    <t>Numbers 表格工作表名称</t>
+  </si>
+  <si>
+    <t>数字表格名称</t>
+  </si>
+  <si>
+    <t>Excel 工作表名称</t>
+  </si>
+  <si>
+    <t>总额核对清单</t>
+  </si>
+  <si>
+    <t>收到 — 核对清单(2019年1月24日收到董师兄¥4000+2019年3月收到¥2000+4月收到¥3000+5月收到3000+6月¥3000，共计¥15000)</t>
+  </si>
+  <si>
+    <t>总额核对清单 - 收到 — 核对清单(2019年1月24日收到</t>
   </si>
   <si>
     <t>是/否</t>
@@ -140,6 +168,36 @@
     <t>2019.04.11</t>
   </si>
   <si>
+    <t>深度学习专家费（王磊+张文逍）</t>
+  </si>
+  <si>
+    <t>2019.05.20</t>
+  </si>
+  <si>
+    <t>羽毛球场地费（12）+ 水 （18）+信封（6）</t>
+  </si>
+  <si>
+    <t>2019.05.28</t>
+  </si>
+  <si>
+    <t>响红院士毕业礼物-羽毛球拍及附件</t>
+  </si>
+  <si>
+    <t>2019.06.01</t>
+  </si>
+  <si>
+    <t>国软2h羽毛球+20元的水</t>
+  </si>
+  <si>
+    <t>2019.06.20</t>
+  </si>
+  <si>
+    <t>刘缘师兄专家费</t>
+  </si>
+  <si>
+    <t>2019.06.23</t>
+  </si>
+  <si>
     <t>梁福逊</t>
   </si>
   <si>
@@ -161,6 +219,15 @@
     <t>2019.01.23</t>
   </si>
   <si>
+    <t>纪雪</t>
+  </si>
+  <si>
+    <t>羽毛球（1桶）</t>
+  </si>
+  <si>
+    <t>2019.05.02</t>
+  </si>
+  <si>
     <t>张璐琪</t>
   </si>
   <si>
@@ -176,24 +243,58 @@
     <t>羽毛球场地费24</t>
   </si>
   <si>
+    <t>场地费</t>
+  </si>
+  <si>
     <t>丛阳滋</t>
   </si>
   <si>
     <t>之前的羽毛球1桶 + 场地费</t>
   </si>
   <si>
+    <t>近期羽毛球场地费（丛+李）</t>
+  </si>
+  <si>
+    <t>2019.05.03</t>
+  </si>
+  <si>
+    <t>羽毛球</t>
+  </si>
+  <si>
+    <t>2019.05.13</t>
+  </si>
+  <si>
+    <t>激光雷达大会打车费</t>
+  </si>
+  <si>
     <t>总计</t>
+  </si>
+  <si>
+    <t>收到</t>
+  </si>
+  <si>
+    <t>总额核对清单 - 收到</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>董</t>
+  </si>
+  <si>
+    <t>合计</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="[$￥-804]#,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="[$￥-804]#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;mmm"/>
+    <numFmt numFmtId="178" formatCode="[$￥-804]0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -201,21 +302,48 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="9"/>
+      <color indexed="8"/>
+      <name val="Avenir Next"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Avenir Next"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="11"/>
+      <name val="Avenir Next"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="12"/>
       <name val="Avenir Next Medium"/>
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="9"/>
+      <color indexed="12"/>
       <name val="Avenir Next Demi Bold"/>
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="9"/>
+      <color indexed="12"/>
       <name val="Avenir Next"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="18"/>
+      <name val="Avenir Next Demi Bold"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,18 +352,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="14"/>
+        <fgColor indexed="10"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="19"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="20"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="21"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -245,28 +403,43 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="medium">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="medium">
-        <color indexed="11"/>
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
       </top>
       <bottom style="thin">
         <color indexed="13"/>
@@ -275,491 +448,678 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="14"/>
+      </left>
+      <right style="dotted">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="16"/>
+      </left>
+      <right style="dotted">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="16"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
       </right>
       <top style="thin">
         <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="dotted">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="13"/>
-      </left>
-      <right style="dotted">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="dotted">
         <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="14"/>
+      </left>
+      <right style="dotted">
+        <color indexed="16"/>
+      </right>
+      <top style="dotted">
+        <color indexed="16"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="16"/>
+      </left>
+      <right style="dotted">
+        <color indexed="16"/>
+      </right>
+      <top style="dotted">
+        <color indexed="16"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="16"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </right>
-      <top style="thin">
-        <color indexed="10"/>
+      <top style="dotted">
+        <color indexed="16"/>
       </top>
-      <bottom style="thin">
-        <color indexed="10"/>
+      <bottom style="dotted">
+        <color indexed="16"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
       </left>
       <right style="dotted">
+        <color indexed="16"/>
+      </right>
+      <top style="dotted">
+        <color indexed="16"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="16"/>
+      </left>
+      <right style="dotted">
+        <color indexed="16"/>
+      </right>
+      <top style="dotted">
+        <color indexed="16"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
         <color indexed="13"/>
       </right>
       <top style="dotted">
+        <color indexed="16"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="dotted">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="16"/>
+      </left>
+      <right style="dotted">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
         <color indexed="13"/>
       </top>
-      <bottom style="dotted">
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="dotted">
+        <color indexed="16"/>
+      </right>
+      <top style="dotted">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="16"/>
+      </left>
+      <right style="dotted">
+        <color indexed="16"/>
+      </right>
+      <top style="dotted">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="dotted">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
         <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color indexed="13"/>
-      </left>
-      <right style="dotted">
-        <color indexed="13"/>
-      </right>
-      <top style="dotted">
-        <color indexed="13"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="13"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="dotted">
-        <color indexed="13"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="13"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="11"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="dotted">
-        <color indexed="13"/>
-      </right>
-      <top style="dotted">
-        <color indexed="13"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="11"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color indexed="13"/>
-      </left>
-      <right style="dotted">
-        <color indexed="13"/>
-      </right>
-      <top style="dotted">
-        <color indexed="13"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="11"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="dotted">
-        <color indexed="13"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="11"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="dotted">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="13"/>
-      </left>
-      <right style="dotted">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="dotted">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="13"/>
-      </left>
-      <right style="dotted">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="77">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="5" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="5" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ff313131"/>
-      <rgbColor rgb="ffe3e3e3"/>
-      <rgbColor rgb="ff929292"/>
-      <rgbColor rgb="ffd3d3d3"/>
-      <rgbColor rgb="ffadadad"/>
-      <rgbColor rgb="fff4f9f7"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="015E88B1"/>
+      <rgbColor rgb="01EEF3F4"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF313131"/>
+      <rgbColor rgb="FFE3E3E3"/>
+      <rgbColor rgb="FF929292"/>
+      <rgbColor rgb="FFD3D3D3"/>
+      <rgbColor rgb="FFADADAD"/>
+      <rgbColor rgb="FFF4F9F7"/>
+      <rgbColor rgb="FFFEFEFE"/>
+      <rgbColor rgb="FF008CB4"/>
+      <rgbColor rgb="FFE6F6FB"/>
+      <rgbColor rgb="FFEEEEEE"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="08_SumChecklist">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="08_SumChecklist">
   <a:themeElements>
     <a:clrScheme name="08_SumChecklist">
       <a:dk1>
@@ -885,7 +1245,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="12700" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -894,7 +1254,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="12700" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -972,7 +1332,7 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="12700" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -980,7 +1340,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -999,7 +1359,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1029,7 +1389,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1055,7 +1415,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1081,7 +1441,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1107,7 +1467,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1133,7 +1493,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1159,7 +1519,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1185,7 +1545,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1211,7 +1571,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1237,7 +1597,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1250,9 +1610,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1273,7 +1639,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1292,7 +1658,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1318,7 +1684,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1344,7 +1710,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1370,7 +1736,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1396,7 +1762,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1422,7 +1788,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1448,7 +1814,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1474,7 +1840,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1500,7 +1866,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1526,7 +1892,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1539,9 +1905,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1555,7 +1927,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1574,7 +1946,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1604,7 +1976,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1630,7 +2002,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1656,7 +2028,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1682,7 +2054,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1708,7 +2080,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1734,7 +2106,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1760,7 +2132,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1786,7 +2158,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1812,7 +2184,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1825,725 +2197,1189 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:G36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.28" defaultRowHeight="21.65" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="13" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.35156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3047" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.7891" style="1" customWidth="1"/>
-    <col min="6" max="7" width="18.375" style="1" customWidth="1"/>
-    <col min="8" max="256" width="11.3047" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="4" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.3" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="3" spans="2:4" ht="50" customHeight="1">
+      <c r="B3" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" ht="23.35" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" t="s" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="5">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+    </row>
+    <row r="7" spans="2:4" ht="21">
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s" s="5">
+    </row>
+    <row r="9" spans="2:4" ht="18">
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s" s="4">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:4" ht="72">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s" s="4">
+      <c r="D10" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="21.05" customHeight="1">
-      <c r="A3" t="s" s="6">
+    <row r="11" spans="2:4" ht="18">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D10" location="'总额核对清单 - 收到 — 核对清单(2019年1月24日收到'!R2C1" display="总额核对清单 - 收到 — 核对清单(2019年1月24日收到" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D11" location="'总额核对清单 - 收到'!R2C1" display="总额核对清单 - 收到" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:IV48"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A33" workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="21.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="48" style="5" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" style="5" customWidth="1"/>
+    <col min="8" max="256" width="11.33203125" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="31.25" customHeight="1">
+      <c r="A1" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+    </row>
+    <row r="2" spans="1:7" ht="23.25" customHeight="1">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" ht="23" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" t="b" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s" s="10">
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s" s="10">
+      <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="11">
+      <c r="E2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="21" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" ht="23" customHeight="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="14">
         <v>50</v>
       </c>
-      <c r="G4" t="s" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" ht="23" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" t="b" s="14">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s" s="15">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s" s="15">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s" s="15">
+      <c r="G4" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="23" customHeight="1">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="19">
+        <v>130.94999999999999</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="23" customHeight="1">
+      <c r="A6" s="16"/>
+      <c r="B6" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="23">
+        <v>94</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="23" customHeight="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="19">
+        <v>18</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="23" customHeight="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="23">
+        <v>1895.2</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="22.75" customHeight="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="19">
+        <v>19</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="23" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="23">
+        <v>35</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="23" customHeight="1">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="19">
         <v>12</v>
       </c>
-      <c r="F5" s="16">
-        <v>130.95</v>
-      </c>
-      <c r="G5" t="s" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" ht="37" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" t="b" s="18">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s" s="19">
+      <c r="G11" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="23" customHeight="1">
+      <c r="A12" s="16"/>
+      <c r="B12" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s" s="19">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s" s="19">
-        <v>12</v>
-      </c>
-      <c r="F6" s="20">
-        <v>94</v>
-      </c>
-      <c r="G6" t="s" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" ht="23" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" t="b" s="14">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s" s="15">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s" s="15">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="F7" s="16">
+      <c r="E12" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="23">
+        <v>50</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="23" customHeight="1">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="19">
+        <v>19.29</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="23" customHeight="1">
+      <c r="A14" s="16"/>
+      <c r="B14" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="23">
+        <v>52</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="23" customHeight="1">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="19">
+        <v>180</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="23" customHeight="1">
+      <c r="A16" s="16"/>
+      <c r="B16" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="23">
+        <v>474</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="23" customHeight="1">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="19">
+        <v>418</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="23" customHeight="1">
+      <c r="A18" s="16"/>
+      <c r="B18" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="23">
+        <v>143</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="23" customHeight="1">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="19">
+        <v>1008</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="22.75" customHeight="1">
+      <c r="A20" s="16"/>
+      <c r="B20" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="23">
+        <v>1000</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="23" customHeight="1">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="19">
+        <v>40</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="23" customHeight="1">
+      <c r="A22" s="16"/>
+      <c r="B22" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="23">
+        <v>23.5</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="23" customHeight="1">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="19">
+        <v>2103</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="23" customHeight="1">
+      <c r="A24" s="16"/>
+      <c r="B24" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="23">
+        <v>1000</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="23" customHeight="1">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="19">
+        <v>36</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="23" customHeight="1">
+      <c r="A26" s="16"/>
+      <c r="B26" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="23">
+        <v>1600</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="23" customHeight="1">
+      <c r="A27" s="16"/>
+      <c r="B27" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="19">
+        <v>44</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="23.25" customHeight="1">
+      <c r="A28" s="25"/>
+      <c r="B28" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="28">
+        <v>2000</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="21" customHeight="1">
+      <c r="A29" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:7" ht="23" customHeight="1">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G7" t="s" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" ht="23" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" t="b" s="18">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s" s="19">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s" s="19">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s" s="19">
-        <v>17</v>
-      </c>
-      <c r="F8" s="20">
-        <v>1895.2</v>
-      </c>
-      <c r="G8" t="s" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" ht="22.75" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" t="b" s="14">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s" s="15">
+      <c r="F30" s="14">
+        <v>73</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="23" customHeight="1">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s" s="15">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s" s="15">
-        <v>19</v>
-      </c>
-      <c r="F9" s="16">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" ht="23" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" t="b" s="18">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s" s="19">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s" s="19">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s" s="19">
-        <v>21</v>
-      </c>
-      <c r="F10" s="20">
-        <v>35</v>
-      </c>
-      <c r="G10" t="s" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" ht="23" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" t="b" s="14">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s" s="15">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s" s="15">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s" s="15">
-        <v>23</v>
-      </c>
-      <c r="F11" s="16">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" ht="23" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" t="b" s="18">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s" s="19">
+      <c r="F31" s="19">
+        <v>360</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="23" customHeight="1">
+      <c r="A32" s="16"/>
+      <c r="B32" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="23">
+        <v>78</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="23" customHeight="1">
+      <c r="A33" s="16"/>
+      <c r="B33" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="19">
+        <v>104</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="23.5" customHeight="1">
+      <c r="A34" s="25"/>
+      <c r="B34" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="28">
+        <v>214.5</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="21" customHeight="1">
+      <c r="A35" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" ht="23.5" customHeight="1">
+      <c r="A36" s="30"/>
+      <c r="B36" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" s="33">
+        <v>90</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="21" customHeight="1">
+      <c r="A37" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7" ht="23.5" customHeight="1">
+      <c r="A38" s="30"/>
+      <c r="B38" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="33">
+        <v>80</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="21" customHeight="1">
+      <c r="A39" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:7" ht="23" customHeight="1">
+      <c r="A40" s="11"/>
+      <c r="B40" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="14">
         <v>24</v>
       </c>
-      <c r="D12" t="s" s="19">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s" s="19">
-        <v>25</v>
-      </c>
-      <c r="F12" s="20">
-        <v>50</v>
-      </c>
-      <c r="G12" t="s" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" ht="37" customHeight="1">
-      <c r="A13" s="13"/>
-      <c r="B13" t="b" s="14">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s" s="15">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s" s="15">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s" s="15">
-        <v>25</v>
-      </c>
-      <c r="F13" s="16">
-        <v>19.29</v>
-      </c>
-      <c r="G13" t="s" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" ht="37" customHeight="1">
-      <c r="A14" s="13"/>
-      <c r="B14" t="b" s="18">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s" s="19">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s" s="19">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s" s="19">
-        <v>25</v>
-      </c>
-      <c r="F14" s="20">
-        <v>52</v>
-      </c>
-      <c r="G14" t="s" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" ht="23" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" t="b" s="14">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s" s="15">
-        <v>28</v>
-      </c>
-      <c r="D15" t="s" s="15">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s" s="15">
-        <v>25</v>
-      </c>
-      <c r="F15" s="16">
-        <v>180</v>
-      </c>
-      <c r="G15" t="s" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" ht="37" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" t="b" s="18">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s" s="19">
+      <c r="G40" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="23.25" customHeight="1">
+      <c r="A41" s="25"/>
+      <c r="B41" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="37">
+        <v>100</v>
+      </c>
+      <c r="G41" s="38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="21" customHeight="1">
+      <c r="A42" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" ht="23" customHeight="1">
+      <c r="A43" s="11"/>
+      <c r="B43" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="D16" t="s" s="19">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s" s="19">
-        <v>25</v>
-      </c>
-      <c r="F16" s="20">
-        <v>474</v>
-      </c>
-      <c r="G16" t="s" s="21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" ht="37" customHeight="1">
-      <c r="A17" s="13"/>
-      <c r="B17" t="b" s="14">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s" s="15">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s" s="15">
-        <v>7</v>
-      </c>
-      <c r="E17" t="s" s="15">
-        <v>25</v>
-      </c>
-      <c r="F17" s="16">
-        <v>418</v>
-      </c>
-      <c r="G17" t="s" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" ht="37" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="B18" t="b" s="18">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s" s="19">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="19">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s" s="19">
-        <v>25</v>
-      </c>
-      <c r="F18" s="20">
-        <v>143</v>
-      </c>
-      <c r="G18" t="s" s="21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" ht="37" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" t="b" s="14">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s" s="15">
-        <v>33</v>
-      </c>
-      <c r="D19" t="s" s="15">
-        <v>7</v>
-      </c>
-      <c r="E19" t="s" s="15">
-        <v>25</v>
-      </c>
-      <c r="F19" s="16">
-        <v>1008</v>
-      </c>
-      <c r="G19" t="s" s="17">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" ht="22.75" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" t="b" s="18">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s" s="19">
-        <v>34</v>
-      </c>
-      <c r="D20" t="s" s="19">
-        <v>7</v>
-      </c>
-      <c r="E20" t="s" s="19">
-        <v>35</v>
-      </c>
-      <c r="F20" s="20">
-        <v>1000</v>
-      </c>
-      <c r="G20" t="s" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" ht="23" customHeight="1">
-      <c r="A21" s="13"/>
-      <c r="B21" t="b" s="14">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s" s="15">
-        <v>36</v>
-      </c>
-      <c r="D21" t="s" s="15">
-        <v>7</v>
-      </c>
-      <c r="E21" t="s" s="15">
-        <v>37</v>
-      </c>
-      <c r="F21" s="16">
-        <v>40</v>
-      </c>
-      <c r="G21" t="s" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" ht="23" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" t="b" s="18">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s" s="19">
-        <v>38</v>
-      </c>
-      <c r="D22" t="s" s="19">
-        <v>7</v>
-      </c>
-      <c r="E22" t="s" s="19">
-        <v>39</v>
-      </c>
-      <c r="F22" s="20">
-        <v>23.5</v>
-      </c>
-      <c r="G22" t="s" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" ht="23.6" customHeight="1">
-      <c r="A23" s="22"/>
-      <c r="B23" t="b" s="23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s" s="24">
-        <v>40</v>
-      </c>
-      <c r="D23" t="s" s="24">
-        <v>7</v>
-      </c>
-      <c r="E23" t="s" s="24">
-        <v>41</v>
-      </c>
-      <c r="F23" s="25">
-        <v>2103</v>
-      </c>
-      <c r="G23" t="s" s="26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" ht="21.05" customHeight="1">
-      <c r="A24" t="s" s="6">
-        <v>42</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" ht="37" customHeight="1">
-      <c r="A25" s="8"/>
-      <c r="B25" t="b" s="27">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s" s="28">
-        <v>13</v>
-      </c>
-      <c r="D25" t="s" s="28">
-        <v>42</v>
-      </c>
-      <c r="E25" t="s" s="28">
-        <v>12</v>
-      </c>
-      <c r="F25" s="29">
-        <v>73</v>
-      </c>
-      <c r="G25" t="s" s="30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" ht="23" customHeight="1">
-      <c r="A26" s="13"/>
-      <c r="B26" t="b" s="18">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s" s="19">
-        <v>43</v>
-      </c>
-      <c r="D26" t="s" s="19">
-        <v>42</v>
-      </c>
-      <c r="E26" t="s" s="19">
-        <v>12</v>
-      </c>
-      <c r="F26" s="20">
-        <v>360</v>
-      </c>
-      <c r="G26" t="s" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" ht="23" customHeight="1">
-      <c r="A27" s="13"/>
-      <c r="B27" t="b" s="14">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s" s="15">
-        <v>44</v>
-      </c>
-      <c r="D27" t="s" s="15">
-        <v>42</v>
-      </c>
-      <c r="E27" t="s" s="15">
-        <v>12</v>
-      </c>
-      <c r="F27" s="16">
+      <c r="F43" s="41">
+        <v>130</v>
+      </c>
+      <c r="G43" s="42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="23" customHeight="1">
+      <c r="A44" s="16"/>
+      <c r="B44" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F44" s="23">
+        <v>240</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="22.75" customHeight="1">
+      <c r="A45" s="16"/>
+      <c r="B45" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="G27" t="s" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" ht="23" customHeight="1">
-      <c r="A28" s="13"/>
-      <c r="B28" t="b" s="18">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s" s="19">
-        <v>45</v>
-      </c>
-      <c r="D28" t="s" s="19">
-        <v>42</v>
-      </c>
-      <c r="E28" t="s" s="19">
-        <v>46</v>
-      </c>
-      <c r="F28" s="20">
-        <v>104</v>
-      </c>
-      <c r="G28" t="s" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" ht="23.6" customHeight="1">
-      <c r="A29" s="22"/>
-      <c r="B29" t="b" s="23">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s" s="24">
-        <v>47</v>
-      </c>
-      <c r="D29" t="s" s="24">
-        <v>42</v>
-      </c>
-      <c r="E29" t="s" s="24">
-        <v>48</v>
-      </c>
-      <c r="F29" s="25">
-        <v>214.5</v>
-      </c>
-      <c r="G29" t="s" s="26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" ht="21.05" customHeight="1">
-      <c r="A30" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" ht="23.6" customHeight="1">
-      <c r="A31" s="31"/>
-      <c r="B31" t="b" s="32">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s" s="33">
-        <v>50</v>
-      </c>
-      <c r="D31" t="s" s="33">
-        <v>49</v>
-      </c>
-      <c r="E31" t="s" s="33">
+      <c r="D45" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" s="19">
+        <v>280</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="22.75" customHeight="1">
+      <c r="A46" s="16"/>
+      <c r="B46" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F31" s="34">
-        <v>80</v>
-      </c>
-      <c r="G31" t="s" s="35">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" ht="21.05" customHeight="1">
-      <c r="A32" t="s" s="6">
-        <v>52</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" ht="23.6" customHeight="1">
-      <c r="A33" s="31"/>
-      <c r="B33" t="b" s="32">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s" s="33">
-        <v>53</v>
-      </c>
-      <c r="D33" t="s" s="33">
-        <v>52</v>
-      </c>
-      <c r="E33" t="s" s="33">
-        <v>23</v>
-      </c>
-      <c r="F33" s="34">
-        <v>24</v>
-      </c>
-      <c r="G33" t="s" s="35">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" ht="21.05" customHeight="1">
-      <c r="A34" t="s" s="6">
-        <v>54</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" ht="23.1" customHeight="1">
-      <c r="A35" s="36"/>
-      <c r="B35" t="b" s="37">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s" s="38">
+      <c r="F46" s="23">
+        <v>119</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="22.75" customHeight="1">
+      <c r="A47" s="43"/>
+      <c r="B47" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D35" t="s" s="38">
-        <v>54</v>
-      </c>
-      <c r="E35" t="s" s="38">
-        <v>23</v>
-      </c>
-      <c r="F35" s="39">
-        <v>130</v>
-      </c>
-      <c r="G35" t="s" s="40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" ht="22.6" customHeight="1">
-      <c r="A36" s="41"/>
-      <c r="B36" s="42"/>
-      <c r="C36" t="s" s="42">
-        <v>56</v>
-      </c>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="43">
-        <v>7203.440000000001</v>
-      </c>
-      <c r="G36" s="44"/>
+      <c r="F47" s="46">
+        <v>200</v>
+      </c>
+      <c r="G47" s="47"/>
+    </row>
+    <row r="48" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A48" s="48"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="50">
+        <v>12912.44</v>
+      </c>
+      <c r="G48" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:IV11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="21.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="256" width="16.33203125" style="52" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="31" customHeight="1">
+      <c r="A1" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+    </row>
+    <row r="2" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A2" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+    </row>
+    <row r="3" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A3" s="55">
+        <v>42027</v>
+      </c>
+      <c r="B3" s="56">
+        <v>4000</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+    </row>
+    <row r="4" spans="1:5" ht="22" customHeight="1">
+      <c r="A4" s="59">
+        <v>42066</v>
+      </c>
+      <c r="B4" s="60">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+    </row>
+    <row r="5" spans="1:5" ht="22" customHeight="1">
+      <c r="A5" s="59">
+        <v>42096</v>
+      </c>
+      <c r="B5" s="63">
+        <v>3000</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+    </row>
+    <row r="6" spans="1:5" ht="22" customHeight="1">
+      <c r="A6" s="66">
+        <v>42124</v>
+      </c>
+      <c r="B6" s="60">
+        <v>3000</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+    </row>
+    <row r="7" spans="1:5" ht="22" customHeight="1">
+      <c r="A7" s="66">
+        <v>42155</v>
+      </c>
+      <c r="B7" s="67">
+        <v>3000</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+    </row>
+    <row r="8" spans="1:5" ht="22" customHeight="1">
+      <c r="A8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+    </row>
+    <row r="9" spans="1:5" ht="22" customHeight="1">
+      <c r="A9" s="68"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+    </row>
+    <row r="10" spans="1:5" ht="22" customHeight="1">
+      <c r="A10" s="68"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+    </row>
+    <row r="11" spans="1:5" ht="22" customHeight="1">
+      <c r="A11" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="72">
+        <v>15000</v>
+      </c>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>